--- a/Standard Output/Capita SO template.xlsx
+++ b/Standard Output/Capita SO template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="300" windowWidth="25500" windowHeight="11160" tabRatio="799" activeTab="7"/>
   </bookViews>
@@ -197,7 +197,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>McAndrew, Krispin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A42" authorId="0">
@@ -235,7 +235,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>McAndrew, Krispin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A15" authorId="0">
@@ -3966,25 +3966,13 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3996,26 +3984,23 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4024,27 +4009,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4064,6 +4028,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -7322,6 +7322,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7812,11 +7813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139233536"/>
-        <c:axId val="139771904"/>
+        <c:axId val="45536000"/>
+        <c:axId val="45537920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139233536"/>
+        <c:axId val="45536000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,7 +7852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139771904"/>
+        <c:crossAx val="45537920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7859,7 +7860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139771904"/>
+        <c:axId val="45537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +7930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139233536"/>
+        <c:crossAx val="45536000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8545,11 +8546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342903424"/>
-        <c:axId val="342921984"/>
+        <c:axId val="53329280"/>
+        <c:axId val="53343744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342903424"/>
+        <c:axId val="53329280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8588,7 +8589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342921984"/>
+        <c:crossAx val="53343744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8596,7 +8597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342921984"/>
+        <c:axId val="53343744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8639,7 +8640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342903424"/>
+        <c:crossAx val="53329280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9205,11 +9206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348284416"/>
-        <c:axId val="348286336"/>
+        <c:axId val="53373184"/>
+        <c:axId val="53379456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348284416"/>
+        <c:axId val="53373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9248,7 +9249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348286336"/>
+        <c:crossAx val="53379456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9256,7 +9257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348286336"/>
+        <c:axId val="53379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9299,7 +9300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348284416"/>
+        <c:crossAx val="53373184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9865,11 +9866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348312320"/>
-        <c:axId val="348314240"/>
+        <c:axId val="53396992"/>
+        <c:axId val="53398912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348312320"/>
+        <c:axId val="53396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9908,7 +9909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348314240"/>
+        <c:crossAx val="53398912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9916,7 +9917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348314240"/>
+        <c:axId val="53398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,7 +9960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348312320"/>
+        <c:crossAx val="53396992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10525,11 +10526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348372992"/>
-        <c:axId val="348374912"/>
+        <c:axId val="53445376"/>
+        <c:axId val="53447296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348372992"/>
+        <c:axId val="53445376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348374912"/>
+        <c:crossAx val="53447296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10573,7 +10574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348374912"/>
+        <c:axId val="53447296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10616,7 +10617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348372992"/>
+        <c:crossAx val="53445376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11182,11 +11183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348388352"/>
-        <c:axId val="348402816"/>
+        <c:axId val="53628928"/>
+        <c:axId val="53630848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348388352"/>
+        <c:axId val="53628928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11225,7 +11226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348402816"/>
+        <c:crossAx val="53630848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11233,7 +11234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348402816"/>
+        <c:axId val="53630848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11276,7 +11277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348388352"/>
+        <c:crossAx val="53628928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11344,6 +11345,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11486,11 +11488,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346981504"/>
-        <c:axId val="346983040"/>
+        <c:axId val="55174656"/>
+        <c:axId val="55176192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346981504"/>
+        <c:axId val="55174656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11517,7 +11519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346983040"/>
+        <c:crossAx val="55176192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11525,7 +11527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346983040"/>
+        <c:axId val="55176192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11552,7 +11554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346981504"/>
+        <c:crossAx val="55174656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11948,11 +11950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="349009408"/>
-        <c:axId val="349010944"/>
+        <c:axId val="55347072"/>
+        <c:axId val="55348608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349009408"/>
+        <c:axId val="55347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11971,7 +11973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349010944"/>
+        <c:crossAx val="55348608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11979,7 +11981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349010944"/>
+        <c:axId val="55348608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11989,7 +11991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349009408"/>
+        <c:crossAx val="55347072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12351,11 +12353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348718592"/>
-        <c:axId val="348720128"/>
+        <c:axId val="55371648"/>
+        <c:axId val="55373184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348718592"/>
+        <c:axId val="55371648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12374,7 +12376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348720128"/>
+        <c:crossAx val="55373184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12382,7 +12384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348720128"/>
+        <c:axId val="55373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12392,7 +12394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348718592"/>
+        <c:crossAx val="55371648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12764,11 +12766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348952448"/>
-        <c:axId val="348953984"/>
+        <c:axId val="55445760"/>
+        <c:axId val="55451648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348952448"/>
+        <c:axId val="55445760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12787,7 +12789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348953984"/>
+        <c:crossAx val="55451648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12795,7 +12797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348953984"/>
+        <c:axId val="55451648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12805,7 +12807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348952448"/>
+        <c:crossAx val="55445760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13167,11 +13169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="351488640"/>
-        <c:axId val="351494528"/>
+        <c:axId val="55478528"/>
+        <c:axId val="55484416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351488640"/>
+        <c:axId val="55478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13190,7 +13192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351494528"/>
+        <c:crossAx val="55484416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13198,7 +13200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351494528"/>
+        <c:axId val="55484416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13210,7 +13212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351488640"/>
+        <c:crossAx val="55478528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13281,6 +13283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13771,11 +13774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139835648"/>
-        <c:axId val="139845632"/>
+        <c:axId val="48290432"/>
+        <c:axId val="48330240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139835648"/>
+        <c:axId val="48290432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13803,7 +13806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139845632"/>
+        <c:crossAx val="48330240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13811,7 +13814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139845632"/>
+        <c:axId val="48330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13865,7 +13868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139835648"/>
+        <c:crossAx val="48290432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14457,11 +14460,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139945472"/>
-        <c:axId val="139947008"/>
+        <c:axId val="228673024"/>
+        <c:axId val="228674560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139945472"/>
+        <c:axId val="228673024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14489,7 +14492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139947008"/>
+        <c:crossAx val="228674560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14497,7 +14500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139947008"/>
+        <c:axId val="228674560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14551,7 +14554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139945472"/>
+        <c:crossAx val="228673024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14652,6 +14655,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15142,11 +15146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140006144"/>
-        <c:axId val="140007680"/>
+        <c:axId val="253684352"/>
+        <c:axId val="254187008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140006144"/>
+        <c:axId val="253684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15181,7 +15185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140007680"/>
+        <c:crossAx val="254187008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15189,7 +15193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140007680"/>
+        <c:axId val="254187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15257,7 +15261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140006144"/>
+        <c:crossAx val="253684352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15272,6 +15276,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -15365,6 +15370,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15855,11 +15861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140167808"/>
-        <c:axId val="140198272"/>
+        <c:axId val="48393216"/>
+        <c:axId val="48874240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140167808"/>
+        <c:axId val="48393216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15894,7 +15900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140198272"/>
+        <c:crossAx val="48874240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15902,7 +15908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140198272"/>
+        <c:axId val="48874240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15970,7 +15976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140167808"/>
+        <c:crossAx val="48393216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16088,6 +16094,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16578,11 +16585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="237909888"/>
-        <c:axId val="237911424"/>
+        <c:axId val="52710016"/>
+        <c:axId val="52720000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237909888"/>
+        <c:axId val="52710016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16617,7 +16624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237911424"/>
+        <c:crossAx val="52720000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16625,7 +16632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237911424"/>
+        <c:axId val="52720000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16693,7 +16700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237909888"/>
+        <c:crossAx val="52710016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17323,11 +17330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340485248"/>
-        <c:axId val="340487168"/>
+        <c:axId val="52742400"/>
+        <c:axId val="52748672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340485248"/>
+        <c:axId val="52742400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17366,7 +17373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340487168"/>
+        <c:crossAx val="52748672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17374,7 +17381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340487168"/>
+        <c:axId val="52748672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17417,7 +17424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340485248"/>
+        <c:crossAx val="52742400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17983,11 +17990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342827392"/>
-        <c:axId val="342829312"/>
+        <c:axId val="52966912"/>
+        <c:axId val="52968832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342827392"/>
+        <c:axId val="52966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18026,7 +18033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342829312"/>
+        <c:crossAx val="52968832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18034,7 +18041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342829312"/>
+        <c:axId val="52968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18077,7 +18084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342827392"/>
+        <c:crossAx val="52966912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18643,11 +18650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342883712"/>
-        <c:axId val="342889984"/>
+        <c:axId val="53293440"/>
+        <c:axId val="53295360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342883712"/>
+        <c:axId val="53293440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18683,7 +18690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342889984"/>
+        <c:crossAx val="53295360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18691,7 +18698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342889984"/>
+        <c:axId val="53295360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18734,7 +18741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342883712"/>
+        <c:crossAx val="53293440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26198,18 +26205,18 @@
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="114"/>
-      <c r="C3" s="391" t="s">
+      <c r="C3" s="395" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="392"/>
-      <c r="G3" s="392"/>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392"/>
-      <c r="J3" s="392"/>
-      <c r="K3" s="392"/>
-      <c r="L3" s="392"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="F3" s="396"/>
+      <c r="G3" s="396"/>
+      <c r="H3" s="396"/>
+      <c r="I3" s="396"/>
+      <c r="J3" s="396"/>
+      <c r="K3" s="396"/>
+      <c r="L3" s="396"/>
       <c r="M3" s="268"/>
     </row>
     <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26246,24 +26253,24 @@
       <c r="B5" s="114"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="393" t="s">
+      <c r="E5" s="397" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="394"/>
-      <c r="G5" s="394"/>
-      <c r="H5" s="395"/>
-      <c r="I5" s="393" t="s">
+      <c r="F5" s="391"/>
+      <c r="G5" s="391"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="397" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="394"/>
-      <c r="K5" s="394"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="394" t="s">
+      <c r="J5" s="391"/>
+      <c r="K5" s="391"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="391" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="394"/>
-      <c r="O5" s="394"/>
-      <c r="P5" s="396"/>
+      <c r="N5" s="391"/>
+      <c r="O5" s="391"/>
+      <c r="P5" s="392"/>
     </row>
     <row r="6" spans="1:16" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="108"/>
@@ -26314,7 +26321,7 @@
       <c r="A7" s="82">
         <v>1</v>
       </c>
-      <c r="B7" s="397" t="s">
+      <c r="B7" s="393" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -26378,7 +26385,7 @@
       <c r="A8" s="82">
         <v>2</v>
       </c>
-      <c r="B8" s="398"/>
+      <c r="B8" s="394"/>
       <c r="C8" s="92"/>
       <c r="D8" s="93" t="s">
         <v>243</v>
@@ -27248,24 +27255,24 @@
       <c r="B23" s="159"/>
       <c r="C23" s="115"/>
       <c r="D23" s="116"/>
-      <c r="E23" s="393" t="s">
+      <c r="E23" s="397" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="394"/>
-      <c r="G23" s="394"/>
-      <c r="H23" s="395"/>
-      <c r="I23" s="393" t="s">
+      <c r="F23" s="391"/>
+      <c r="G23" s="391"/>
+      <c r="H23" s="398"/>
+      <c r="I23" s="397" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="394"/>
-      <c r="K23" s="394"/>
-      <c r="L23" s="395"/>
-      <c r="M23" s="394" t="s">
+      <c r="J23" s="391"/>
+      <c r="K23" s="391"/>
+      <c r="L23" s="398"/>
+      <c r="M23" s="391" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="394"/>
-      <c r="O23" s="394"/>
-      <c r="P23" s="396"/>
+      <c r="N23" s="391"/>
+      <c r="O23" s="391"/>
+      <c r="P23" s="392"/>
     </row>
     <row r="24" spans="1:66" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="160"/>
@@ -27314,7 +27321,7 @@
       <c r="A25" s="82">
         <v>1</v>
       </c>
-      <c r="B25" s="397" t="s">
+      <c r="B25" s="393" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -27378,7 +27385,7 @@
       <c r="A26" s="82">
         <v>2</v>
       </c>
-      <c r="B26" s="398"/>
+      <c r="B26" s="394"/>
       <c r="C26" s="113" t="s">
         <v>148</v>
       </c>
@@ -27753,40 +27760,40 @@
       <c r="L37" s="86"/>
     </row>
     <row r="38" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="389"/>
-      <c r="D38" s="389"/>
-      <c r="E38" s="389"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="389"/>
-      <c r="H38" s="389"/>
-      <c r="I38" s="389"/>
-      <c r="J38" s="389"/>
-      <c r="K38" s="389"/>
-      <c r="L38" s="389"/>
+      <c r="C38" s="390"/>
+      <c r="D38" s="390"/>
+      <c r="E38" s="390"/>
+      <c r="F38" s="390"/>
+      <c r="G38" s="390"/>
+      <c r="H38" s="390"/>
+      <c r="I38" s="390"/>
+      <c r="J38" s="390"/>
+      <c r="K38" s="390"/>
+      <c r="L38" s="390"/>
     </row>
     <row r="39" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="389"/>
-      <c r="D39" s="389"/>
-      <c r="E39" s="389"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="389"/>
-      <c r="H39" s="389"/>
-      <c r="I39" s="389"/>
-      <c r="J39" s="389"/>
-      <c r="K39" s="389"/>
-      <c r="L39" s="389"/>
+      <c r="C39" s="390"/>
+      <c r="D39" s="390"/>
+      <c r="E39" s="390"/>
+      <c r="F39" s="390"/>
+      <c r="G39" s="390"/>
+      <c r="H39" s="390"/>
+      <c r="I39" s="390"/>
+      <c r="J39" s="390"/>
+      <c r="K39" s="390"/>
+      <c r="L39" s="390"/>
     </row>
     <row r="40" spans="3:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="389"/>
-      <c r="D40" s="389"/>
-      <c r="E40" s="389"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="389"/>
-      <c r="H40" s="389"/>
-      <c r="I40" s="389"/>
-      <c r="J40" s="389"/>
-      <c r="K40" s="389"/>
-      <c r="L40" s="389"/>
+      <c r="C40" s="390"/>
+      <c r="D40" s="390"/>
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
     </row>
     <row r="41" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="87"/>
@@ -27825,16 +27832,16 @@
       <c r="L43" s="234"/>
     </row>
     <row r="44" spans="3:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="390"/>
-      <c r="D44" s="390"/>
-      <c r="E44" s="390"/>
-      <c r="F44" s="390"/>
-      <c r="G44" s="390"/>
-      <c r="H44" s="390"/>
-      <c r="I44" s="390"/>
-      <c r="J44" s="390"/>
-      <c r="K44" s="390"/>
-      <c r="L44" s="390"/>
+      <c r="C44" s="389"/>
+      <c r="D44" s="389"/>
+      <c r="E44" s="389"/>
+      <c r="F44" s="389"/>
+      <c r="G44" s="389"/>
+      <c r="H44" s="389"/>
+      <c r="I44" s="389"/>
+      <c r="J44" s="389"/>
+      <c r="K44" s="389"/>
+      <c r="L44" s="389"/>
     </row>
     <row r="45" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="88"/>
@@ -27852,16 +27859,16 @@
       <c r="L46" s="234"/>
     </row>
     <row r="47" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="390"/>
-      <c r="D47" s="390"/>
-      <c r="E47" s="390"/>
-      <c r="F47" s="390"/>
-      <c r="G47" s="390"/>
-      <c r="H47" s="390"/>
-      <c r="I47" s="390"/>
-      <c r="J47" s="390"/>
-      <c r="K47" s="390"/>
-      <c r="L47" s="390"/>
+      <c r="C47" s="389"/>
+      <c r="D47" s="389"/>
+      <c r="E47" s="389"/>
+      <c r="F47" s="389"/>
+      <c r="G47" s="389"/>
+      <c r="H47" s="389"/>
+      <c r="I47" s="389"/>
+      <c r="J47" s="389"/>
+      <c r="K47" s="389"/>
+      <c r="L47" s="389"/>
     </row>
     <row r="48" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="88"/>
@@ -27870,43 +27877,43 @@
       <c r="C49" s="88"/>
     </row>
     <row r="50" spans="3:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="390"/>
-      <c r="D50" s="390"/>
-      <c r="E50" s="390"/>
-      <c r="F50" s="390"/>
-      <c r="G50" s="390"/>
-      <c r="H50" s="390"/>
-      <c r="I50" s="390"/>
-      <c r="J50" s="390"/>
-      <c r="K50" s="390"/>
-      <c r="L50" s="390"/>
+      <c r="C50" s="389"/>
+      <c r="D50" s="389"/>
+      <c r="E50" s="389"/>
+      <c r="F50" s="389"/>
+      <c r="G50" s="389"/>
+      <c r="H50" s="389"/>
+      <c r="I50" s="389"/>
+      <c r="J50" s="389"/>
+      <c r="K50" s="389"/>
+      <c r="L50" s="389"/>
     </row>
     <row r="51" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="88"/>
     </row>
     <row r="52" spans="3:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="390"/>
-      <c r="D52" s="390"/>
-      <c r="E52" s="390"/>
-      <c r="F52" s="390"/>
-      <c r="G52" s="390"/>
-      <c r="H52" s="390"/>
-      <c r="I52" s="390"/>
-      <c r="J52" s="390"/>
-      <c r="K52" s="390"/>
-      <c r="L52" s="390"/>
+      <c r="C52" s="389"/>
+      <c r="D52" s="389"/>
+      <c r="E52" s="389"/>
+      <c r="F52" s="389"/>
+      <c r="G52" s="389"/>
+      <c r="H52" s="389"/>
+      <c r="I52" s="389"/>
+      <c r="J52" s="389"/>
+      <c r="K52" s="389"/>
+      <c r="L52" s="389"/>
     </row>
     <row r="53" spans="3:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="390"/>
-      <c r="D53" s="390"/>
-      <c r="E53" s="390"/>
-      <c r="F53" s="390"/>
-      <c r="G53" s="390"/>
-      <c r="H53" s="390"/>
-      <c r="I53" s="390"/>
-      <c r="J53" s="390"/>
-      <c r="K53" s="390"/>
-      <c r="L53" s="390"/>
+      <c r="C53" s="389"/>
+      <c r="D53" s="389"/>
+      <c r="E53" s="389"/>
+      <c r="F53" s="389"/>
+      <c r="G53" s="389"/>
+      <c r="H53" s="389"/>
+      <c r="I53" s="389"/>
+      <c r="J53" s="389"/>
+      <c r="K53" s="389"/>
+      <c r="L53" s="389"/>
     </row>
     <row r="54" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="88"/>
@@ -27924,46 +27931,35 @@
       <c r="C58" s="88"/>
     </row>
     <row r="59" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="389"/>
-      <c r="D59" s="389"/>
-      <c r="E59" s="389"/>
-      <c r="F59" s="389"/>
-      <c r="G59" s="389"/>
-      <c r="H59" s="389"/>
-      <c r="I59" s="389"/>
-      <c r="J59" s="389"/>
-      <c r="K59" s="389"/>
-      <c r="L59" s="389"/>
+      <c r="C59" s="390"/>
+      <c r="D59" s="390"/>
+      <c r="E59" s="390"/>
+      <c r="F59" s="390"/>
+      <c r="G59" s="390"/>
+      <c r="H59" s="390"/>
+      <c r="I59" s="390"/>
+      <c r="J59" s="390"/>
+      <c r="K59" s="390"/>
+      <c r="L59" s="390"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="89"/>
     </row>
     <row r="62" spans="3:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="389"/>
-      <c r="D62" s="389"/>
-      <c r="E62" s="389"/>
-      <c r="F62" s="389"/>
-      <c r="G62" s="389"/>
-      <c r="H62" s="389"/>
-      <c r="I62" s="389"/>
-      <c r="J62" s="389"/>
-      <c r="K62" s="389"/>
-      <c r="L62" s="389"/>
+      <c r="C62" s="390"/>
+      <c r="D62" s="390"/>
+      <c r="E62" s="390"/>
+      <c r="F62" s="390"/>
+      <c r="G62" s="390"/>
+      <c r="H62" s="390"/>
+      <c r="I62" s="390"/>
+      <c r="J62" s="390"/>
+      <c r="K62" s="390"/>
+      <c r="L62" s="390"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C50:L50"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:L53"/>
-    <mergeCell ref="C59:L59"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C40:L40"/>
     <mergeCell ref="C44:L44"/>
     <mergeCell ref="C47:L47"/>
@@ -27972,6 +27968,17 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C50:L50"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C59:L59"/>
+    <mergeCell ref="C62:L62"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:M2">
     <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="greaterThan">
@@ -28813,7 +28820,7 @@
       <c r="A4" s="82">
         <v>1</v>
       </c>
-      <c r="B4" s="397" t="s">
+      <c r="B4" s="393" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="112" t="s">
@@ -28860,7 +28867,7 @@
       <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="398"/>
+      <c r="B5" s="394"/>
       <c r="C5" s="112"/>
       <c r="D5" s="93" t="s">
         <v>243</v>
@@ -29541,7 +29548,7 @@
       <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="397" t="s">
+      <c r="B21" s="393" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="110" t="s">
@@ -29585,7 +29592,7 @@
       <c r="A22" s="82">
         <v>2</v>
       </c>
-      <c r="B22" s="398"/>
+      <c r="B22" s="394"/>
       <c r="C22" s="113" t="s">
         <v>148</v>
       </c>
@@ -29882,40 +29889,40 @@
       <c r="L33" s="86"/>
     </row>
     <row r="34" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="389"/>
-      <c r="D34" s="389"/>
-      <c r="E34" s="389"/>
-      <c r="F34" s="389"/>
-      <c r="G34" s="389"/>
-      <c r="H34" s="389"/>
-      <c r="I34" s="389"/>
-      <c r="J34" s="389"/>
-      <c r="K34" s="389"/>
-      <c r="L34" s="389"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="390"/>
+      <c r="F34" s="390"/>
+      <c r="G34" s="390"/>
+      <c r="H34" s="390"/>
+      <c r="I34" s="390"/>
+      <c r="J34" s="390"/>
+      <c r="K34" s="390"/>
+      <c r="L34" s="390"/>
     </row>
     <row r="35" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="389"/>
-      <c r="D35" s="389"/>
-      <c r="E35" s="389"/>
-      <c r="F35" s="389"/>
-      <c r="G35" s="389"/>
-      <c r="H35" s="389"/>
-      <c r="I35" s="389"/>
-      <c r="J35" s="389"/>
-      <c r="K35" s="389"/>
-      <c r="L35" s="389"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="390"/>
+      <c r="E35" s="390"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="390"/>
+      <c r="H35" s="390"/>
+      <c r="I35" s="390"/>
+      <c r="J35" s="390"/>
+      <c r="K35" s="390"/>
+      <c r="L35" s="390"/>
     </row>
     <row r="36" spans="3:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="389"/>
-      <c r="D36" s="389"/>
-      <c r="E36" s="389"/>
-      <c r="F36" s="389"/>
-      <c r="G36" s="389"/>
-      <c r="H36" s="389"/>
-      <c r="I36" s="389"/>
-      <c r="J36" s="389"/>
-      <c r="K36" s="389"/>
-      <c r="L36" s="389"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="390"/>
+      <c r="I36" s="390"/>
+      <c r="J36" s="390"/>
+      <c r="K36" s="390"/>
+      <c r="L36" s="390"/>
     </row>
     <row r="37" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="87"/>
@@ -29952,16 +29959,16 @@
       <c r="L39" s="257"/>
     </row>
     <row r="40" spans="3:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="390"/>
-      <c r="D40" s="390"/>
-      <c r="E40" s="390"/>
-      <c r="F40" s="390"/>
-      <c r="G40" s="390"/>
-      <c r="H40" s="390"/>
-      <c r="I40" s="390"/>
-      <c r="J40" s="390"/>
-      <c r="K40" s="390"/>
-      <c r="L40" s="390"/>
+      <c r="C40" s="389"/>
+      <c r="D40" s="389"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="389"/>
+      <c r="G40" s="389"/>
+      <c r="H40" s="389"/>
+      <c r="I40" s="389"/>
+      <c r="J40" s="389"/>
+      <c r="K40" s="389"/>
+      <c r="L40" s="389"/>
     </row>
     <row r="41" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="88"/>
@@ -29979,16 +29986,16 @@
       <c r="L42" s="257"/>
     </row>
     <row r="43" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="390"/>
-      <c r="D43" s="390"/>
-      <c r="E43" s="390"/>
-      <c r="F43" s="390"/>
-      <c r="G43" s="390"/>
-      <c r="H43" s="390"/>
-      <c r="I43" s="390"/>
-      <c r="J43" s="390"/>
-      <c r="K43" s="390"/>
-      <c r="L43" s="390"/>
+      <c r="C43" s="389"/>
+      <c r="D43" s="389"/>
+      <c r="E43" s="389"/>
+      <c r="F43" s="389"/>
+      <c r="G43" s="389"/>
+      <c r="H43" s="389"/>
+      <c r="I43" s="389"/>
+      <c r="J43" s="389"/>
+      <c r="K43" s="389"/>
+      <c r="L43" s="389"/>
     </row>
     <row r="44" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="88"/>
@@ -29997,43 +30004,43 @@
       <c r="C45" s="88"/>
     </row>
     <row r="46" spans="3:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="390"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="390"/>
-      <c r="F46" s="390"/>
-      <c r="G46" s="390"/>
-      <c r="H46" s="390"/>
-      <c r="I46" s="390"/>
-      <c r="J46" s="390"/>
-      <c r="K46" s="390"/>
-      <c r="L46" s="390"/>
+      <c r="C46" s="389"/>
+      <c r="D46" s="389"/>
+      <c r="E46" s="389"/>
+      <c r="F46" s="389"/>
+      <c r="G46" s="389"/>
+      <c r="H46" s="389"/>
+      <c r="I46" s="389"/>
+      <c r="J46" s="389"/>
+      <c r="K46" s="389"/>
+      <c r="L46" s="389"/>
     </row>
     <row r="47" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="88"/>
     </row>
     <row r="48" spans="3:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="390"/>
-      <c r="D48" s="390"/>
-      <c r="E48" s="390"/>
-      <c r="F48" s="390"/>
-      <c r="G48" s="390"/>
-      <c r="H48" s="390"/>
-      <c r="I48" s="390"/>
-      <c r="J48" s="390"/>
-      <c r="K48" s="390"/>
-      <c r="L48" s="390"/>
+      <c r="C48" s="389"/>
+      <c r="D48" s="389"/>
+      <c r="E48" s="389"/>
+      <c r="F48" s="389"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
     </row>
     <row r="49" spans="3:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="390"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390"/>
-      <c r="F49" s="390"/>
-      <c r="G49" s="390"/>
-      <c r="H49" s="390"/>
-      <c r="I49" s="390"/>
-      <c r="J49" s="390"/>
-      <c r="K49" s="390"/>
-      <c r="L49" s="390"/>
+      <c r="C49" s="389"/>
+      <c r="D49" s="389"/>
+      <c r="E49" s="389"/>
+      <c r="F49" s="389"/>
+      <c r="G49" s="389"/>
+      <c r="H49" s="389"/>
+      <c r="I49" s="389"/>
+      <c r="J49" s="389"/>
+      <c r="K49" s="389"/>
+      <c r="L49" s="389"/>
     </row>
     <row r="50" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="88"/>
@@ -30051,40 +30058,35 @@
       <c r="C54" s="88"/>
     </row>
     <row r="55" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="389"/>
-      <c r="D55" s="389"/>
-      <c r="E55" s="389"/>
-      <c r="F55" s="389"/>
-      <c r="G55" s="389"/>
-      <c r="H55" s="389"/>
-      <c r="I55" s="389"/>
-      <c r="J55" s="389"/>
-      <c r="K55" s="389"/>
-      <c r="L55" s="389"/>
+      <c r="C55" s="390"/>
+      <c r="D55" s="390"/>
+      <c r="E55" s="390"/>
+      <c r="F55" s="390"/>
+      <c r="G55" s="390"/>
+      <c r="H55" s="390"/>
+      <c r="I55" s="390"/>
+      <c r="J55" s="390"/>
+      <c r="K55" s="390"/>
+      <c r="L55" s="390"/>
     </row>
     <row r="56" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="89"/>
     </row>
     <row r="58" spans="3:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="389"/>
-      <c r="D58" s="389"/>
-      <c r="E58" s="389"/>
-      <c r="F58" s="389"/>
-      <c r="G58" s="389"/>
-      <c r="H58" s="389"/>
-      <c r="I58" s="389"/>
-      <c r="J58" s="389"/>
-      <c r="K58" s="389"/>
-      <c r="L58" s="389"/>
+      <c r="C58" s="390"/>
+      <c r="D58" s="390"/>
+      <c r="E58" s="390"/>
+      <c r="F58" s="390"/>
+      <c r="G58" s="390"/>
+      <c r="H58" s="390"/>
+      <c r="I58" s="390"/>
+      <c r="J58" s="390"/>
+      <c r="K58" s="390"/>
+      <c r="L58" s="390"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C58:L58"/>
     <mergeCell ref="C43:L43"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="B4:B5"/>
@@ -30093,6 +30095,11 @@
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G17">
     <cfRule type="colorScale" priority="8">
@@ -30205,30 +30212,30 @@
     <row r="1" spans="1:112" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="C1" s="209"/>
-      <c r="D1" s="421" t="s">
+      <c r="D1" s="409" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="419"/>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
-      <c r="N1" s="419"/>
-      <c r="O1" s="419"/>
-      <c r="P1" s="419"/>
-      <c r="Q1" s="420"/>
-      <c r="R1" s="419" t="s">
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
+      <c r="N1" s="407"/>
+      <c r="O1" s="407"/>
+      <c r="P1" s="407"/>
+      <c r="Q1" s="408"/>
+      <c r="R1" s="407" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="419"/>
-      <c r="T1" s="419"/>
-      <c r="U1" s="419"/>
-      <c r="V1" s="419"/>
-      <c r="W1" s="420"/>
+      <c r="S1" s="407"/>
+      <c r="T1" s="407"/>
+      <c r="U1" s="407"/>
+      <c r="V1" s="407"/>
+      <c r="W1" s="408"/>
     </row>
     <row r="2" spans="1:112" ht="26.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
@@ -30297,48 +30304,48 @@
     <row r="3" spans="1:112" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="210"/>
-      <c r="D3" s="409" t="s">
+      <c r="D3" s="418" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="410"/>
-      <c r="F3" s="411"/>
-      <c r="G3" s="412" t="s">
+      <c r="E3" s="411"/>
+      <c r="F3" s="412"/>
+      <c r="G3" s="410" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="410"/>
-      <c r="I3" s="411"/>
-      <c r="J3" s="412" t="s">
+      <c r="H3" s="411"/>
+      <c r="I3" s="412"/>
+      <c r="J3" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="410"/>
-      <c r="L3" s="411"/>
-      <c r="M3" s="412" t="s">
+      <c r="K3" s="411"/>
+      <c r="L3" s="412"/>
+      <c r="M3" s="410" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="410"/>
-      <c r="O3" s="411"/>
+      <c r="N3" s="411"/>
+      <c r="O3" s="412"/>
       <c r="P3" s="161" t="s">
         <v>154</v>
       </c>
       <c r="Q3" s="225" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="413" t="s">
+      <c r="R3" s="419" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="406" t="s">
+      <c r="S3" s="401" t="s">
         <v>128</v>
       </c>
-      <c r="T3" s="406" t="s">
+      <c r="T3" s="401" t="s">
         <v>146</v>
       </c>
-      <c r="U3" s="406" t="s">
+      <c r="U3" s="401" t="s">
         <v>143</v>
       </c>
-      <c r="V3" s="406" t="s">
+      <c r="V3" s="401" t="s">
         <v>145</v>
       </c>
-      <c r="W3" s="416" t="s">
+      <c r="W3" s="404" t="s">
         <v>144</v>
       </c>
       <c r="X3" s="17"/>
@@ -30350,28 +30357,28 @@
     <row r="4" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="210"/>
-      <c r="D4" s="409" t="s">
+      <c r="D4" s="418" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
-      <c r="I4" s="410"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
-      <c r="N4" s="410"/>
-      <c r="O4" s="411"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="411"/>
+      <c r="N4" s="411"/>
+      <c r="O4" s="412"/>
       <c r="P4" s="162"/>
       <c r="Q4" s="226"/>
-      <c r="R4" s="414"/>
-      <c r="S4" s="407"/>
-      <c r="T4" s="407"/>
-      <c r="U4" s="407"/>
-      <c r="V4" s="407"/>
-      <c r="W4" s="417"/>
+      <c r="R4" s="420"/>
+      <c r="S4" s="402"/>
+      <c r="T4" s="402"/>
+      <c r="U4" s="402"/>
+      <c r="V4" s="402"/>
+      <c r="W4" s="405"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="28"/>
@@ -30421,12 +30428,12 @@
       </c>
       <c r="P5" s="45"/>
       <c r="Q5" s="227"/>
-      <c r="R5" s="415"/>
-      <c r="S5" s="408"/>
-      <c r="T5" s="408"/>
-      <c r="U5" s="408"/>
-      <c r="V5" s="408"/>
-      <c r="W5" s="418"/>
+      <c r="R5" s="421"/>
+      <c r="S5" s="403"/>
+      <c r="T5" s="403"/>
+      <c r="U5" s="403"/>
+      <c r="V5" s="403"/>
+      <c r="W5" s="406"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="25"/>
@@ -30521,7 +30528,7 @@
       <c r="A6" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="401" t="s">
+      <c r="B6" s="413" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="212" t="s">
@@ -30652,7 +30659,7 @@
       <c r="A7" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="402"/>
+      <c r="B7" s="414"/>
       <c r="C7" s="213" t="s">
         <v>136</v>
       </c>
@@ -30781,7 +30788,7 @@
       <c r="A8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="402"/>
+      <c r="B8" s="414"/>
       <c r="C8" s="213" t="s">
         <v>135</v>
       </c>
@@ -30910,7 +30917,7 @@
       <c r="A9" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="402"/>
+      <c r="B9" s="414"/>
       <c r="C9" s="213" t="s">
         <v>134</v>
       </c>
@@ -31039,7 +31046,7 @@
       <c r="A10" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="402"/>
+      <c r="B10" s="414"/>
       <c r="C10" s="213" t="s">
         <v>133</v>
       </c>
@@ -31168,7 +31175,7 @@
       <c r="A11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="402"/>
+      <c r="B11" s="414"/>
       <c r="C11" s="213" t="s">
         <v>132</v>
       </c>
@@ -31297,7 +31304,7 @@
       <c r="A12" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="403"/>
+      <c r="B12" s="415"/>
       <c r="C12" s="214" t="s">
         <v>131</v>
       </c>
@@ -31644,7 +31651,7 @@
       <c r="A14" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="401" t="s">
+      <c r="B14" s="413" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="212" t="s">
@@ -31775,7 +31782,7 @@
       <c r="A15" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="402"/>
+      <c r="B15" s="414"/>
       <c r="C15" s="213" t="s">
         <v>132</v>
       </c>
@@ -31904,7 +31911,7 @@
       <c r="A16" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="402"/>
+      <c r="B16" s="414"/>
       <c r="C16" s="213" t="s">
         <v>133</v>
       </c>
@@ -32033,7 +32040,7 @@
       <c r="A17" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="402"/>
+      <c r="B17" s="414"/>
       <c r="C17" s="213" t="s">
         <v>134</v>
       </c>
@@ -32162,7 +32169,7 @@
       <c r="A18" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="402"/>
+      <c r="B18" s="414"/>
       <c r="C18" s="213" t="s">
         <v>135</v>
       </c>
@@ -32291,7 +32298,7 @@
       <c r="A19" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="402"/>
+      <c r="B19" s="414"/>
       <c r="C19" s="213" t="s">
         <v>136</v>
       </c>
@@ -32420,7 +32427,7 @@
       <c r="A20" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="403"/>
+      <c r="B20" s="415"/>
       <c r="C20" s="214" t="s">
         <v>137</v>
       </c>
@@ -32706,10 +32713,10 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="404" t="s">
+      <c r="B23" s="416" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="405"/>
+      <c r="C23" s="417"/>
       <c r="D23" s="37" t="e">
         <f ca="1">VLOOKUP(COLUMN(D23)-COLUMN($C23),INDIRECT($D$26),
 MATCH( "IncDispAu_Compare_Mean",INDIRECT($E$26), FALSE),
@@ -32800,10 +32807,10 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="404" t="s">
+      <c r="B24" s="416" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="405"/>
+      <c r="C24" s="417"/>
       <c r="D24" s="37" t="e">
         <f ca="1">VLOOKUP(COLUMN(D24)-COLUMN($C24),INDIRECT($D$26),
 MATCH( "IncDispAu_Compare_P50",INDIRECT($E$26), FALSE),
@@ -35421,12 +35428,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -35438,6 +35439,12 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="D4:O4"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D20">
     <cfRule type="colorScale" priority="13">
@@ -56032,7 +56039,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
